--- a/data/financial_statements/soci/PAYX.xlsx
+++ b/data/financial_statements/soci/PAYX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,147 +601,147 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1190300000</v>
+        <v>1190000000</v>
       </c>
       <c r="C2">
-        <v>1206200000</v>
+        <v>1206000000</v>
       </c>
       <c r="D2">
-        <v>1144300000</v>
+        <v>1144000000</v>
       </c>
       <c r="E2">
         <v>1276000000</v>
       </c>
       <c r="F2">
-        <v>1108500000</v>
+        <v>1109000000</v>
       </c>
       <c r="G2">
         <v>1082900000</v>
@@ -736,23 +850,23 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.0738</v>
+        <v>0.073</v>
       </c>
       <c r="C3">
-        <v>0.1139</v>
+        <v>0.1137</v>
       </c>
       <c r="D3">
-        <v>0.1118</v>
+        <v>0.1115</v>
       </c>
       <c r="E3">
         <v>0.1478</v>
       </c>
       <c r="F3">
-        <v>0.1269</v>
+        <v>0.1274</v>
       </c>
       <c r="G3">
         <v>0.1617</v>
@@ -861,11 +975,11 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>359300000</v>
+        <v>359000000</v>
       </c>
       <c r="C4">
         <v>351000000</v>
@@ -874,10 +988,10 @@
         <v>360000000</v>
       </c>
       <c r="E4">
-        <v>352200000</v>
+        <v>352000000</v>
       </c>
       <c r="F4">
-        <v>331600000</v>
+        <v>332000000</v>
       </c>
       <c r="G4">
         <v>312500000</v>
@@ -986,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>831000100</v>
+        <v>831000000</v>
       </c>
       <c r="C5">
-        <v>855200000</v>
+        <v>855000000</v>
       </c>
       <c r="D5">
-        <v>784300200</v>
+        <v>784000000</v>
       </c>
       <c r="E5">
-        <v>923800000</v>
+        <v>924000000</v>
       </c>
       <c r="F5">
-        <v>776900000</v>
+        <v>777000000</v>
       </c>
       <c r="G5">
         <v>770400000</v>
@@ -1111,8 +1225,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>358700000</v>
@@ -1236,8 +1350,8 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
         <v>472300000</v>
@@ -1361,8 +1475,8 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
         <v>9000000</v>
@@ -1402,8 +1516,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>10000000</v>
@@ -1440,23 +1554,23 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>2900000</v>
+        <v>2000000</v>
       </c>
       <c r="C10">
-        <v>-3600000</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-5200000</v>
+        <v>2000000</v>
       </c>
       <c r="E10">
         <v>-8500000</v>
       </c>
       <c r="F10">
-        <v>-2700000</v>
+        <v>6000000</v>
       </c>
       <c r="G10">
         <v>1000000</v>
@@ -1565,23 +1679,23 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>475200000</v>
+        <v>475000000</v>
       </c>
       <c r="C11">
         <v>492000000</v>
       </c>
       <c r="D11">
-        <v>388800100</v>
+        <v>389000000</v>
       </c>
       <c r="E11">
-        <v>554300000</v>
+        <v>554000000</v>
       </c>
       <c r="F11">
-        <v>437600000</v>
+        <v>438000000</v>
       </c>
       <c r="G11">
         <v>443900000</v>
@@ -1690,23 +1804,23 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>114900000</v>
+        <v>115000000</v>
       </c>
       <c r="C12">
-        <v>112800000</v>
+        <v>113000000</v>
       </c>
       <c r="D12">
-        <v>92400000</v>
+        <v>92000000</v>
       </c>
       <c r="E12">
-        <v>123600000</v>
+        <v>124000000</v>
       </c>
       <c r="F12">
-        <v>105500000</v>
+        <v>106000000</v>
       </c>
       <c r="G12">
         <v>110300000</v>
@@ -1815,8 +1929,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>360300000</v>
@@ -1940,8 +2054,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1987,23 +2101,23 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>360300000</v>
+        <v>360000000</v>
       </c>
       <c r="C15">
-        <v>379200000</v>
+        <v>379000000</v>
       </c>
       <c r="D15">
-        <v>296400000</v>
+        <v>296000000</v>
       </c>
       <c r="E15">
-        <v>430700000</v>
+        <v>431000000</v>
       </c>
       <c r="F15">
-        <v>332100000</v>
+        <v>332000000</v>
       </c>
       <c r="G15">
         <v>333600000</v>
@@ -2112,11 +2226,11 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C16">
         <v>1.05</v>
@@ -2128,7 +2242,7 @@
         <v>1.19</v>
       </c>
       <c r="F16">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G16">
         <v>0.93</v>
@@ -2237,8 +2351,8 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0.99</v>
@@ -2362,23 +2476,23 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>360500000</v>
+        <v>361000000</v>
       </c>
       <c r="C18">
-        <v>360100000</v>
+        <v>360000000</v>
       </c>
       <c r="D18">
-        <v>360600000</v>
+        <v>361000000</v>
       </c>
       <c r="E18">
-        <v>360900000</v>
+        <v>361000000</v>
       </c>
       <c r="F18">
-        <v>360700000</v>
+        <v>361000000</v>
       </c>
       <c r="G18">
         <v>360100000</v>
@@ -2487,23 +2601,23 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>362300000</v>
+        <v>362000000</v>
       </c>
       <c r="C19">
-        <v>362400000</v>
+        <v>362000000</v>
       </c>
       <c r="D19">
-        <v>363100000</v>
+        <v>363000000</v>
       </c>
       <c r="E19">
-        <v>363400000</v>
+        <v>363000000</v>
       </c>
       <c r="F19">
-        <v>363100000</v>
+        <v>363000000</v>
       </c>
       <c r="G19">
         <v>362800000</v>
@@ -2612,23 +2726,23 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>0.6981000000000001</v>
+        <v>0.6983</v>
       </c>
       <c r="C20">
         <v>0.709</v>
       </c>
       <c r="D20">
-        <v>0.6854</v>
+        <v>0.6853</v>
       </c>
       <c r="E20">
-        <v>0.724</v>
+        <v>0.7241</v>
       </c>
       <c r="F20">
-        <v>0.7009</v>
+        <v>0.7006</v>
       </c>
       <c r="G20">
         <v>0.7114</v>
@@ -2737,23 +2851,23 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>0.3968</v>
+        <v>0.3969</v>
       </c>
       <c r="C21">
         <v>0.4109</v>
       </c>
       <c r="D21">
-        <v>0.3443</v>
+        <v>0.3444</v>
       </c>
       <c r="E21">
         <v>0.4411</v>
       </c>
       <c r="F21">
-        <v>0.3972</v>
+        <v>0.397</v>
       </c>
       <c r="G21">
         <v>0.409</v>
@@ -2862,23 +2976,23 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0.3992</v>
       </c>
       <c r="C22">
-        <v>0.4079</v>
+        <v>0.408</v>
       </c>
       <c r="D22">
-        <v>0.3398</v>
+        <v>0.34</v>
       </c>
       <c r="E22">
-        <v>0.4344</v>
+        <v>0.4342</v>
       </c>
       <c r="F22">
-        <v>0.3948</v>
+        <v>0.395</v>
       </c>
       <c r="G22">
         <v>0.4099</v>
@@ -2987,23 +3101,23 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>0.3027</v>
+        <v>0.3025</v>
       </c>
       <c r="C23">
-        <v>0.3144</v>
+        <v>0.3143</v>
       </c>
       <c r="D23">
-        <v>0.259</v>
+        <v>0.2587</v>
       </c>
       <c r="E23">
-        <v>0.3375</v>
+        <v>0.3378</v>
       </c>
       <c r="F23">
-        <v>0.2996</v>
+        <v>0.2994</v>
       </c>
       <c r="G23">
         <v>0.3081</v>
@@ -3112,23 +3226,23 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>576300000</v>
+        <v>517000000</v>
       </c>
       <c r="C24">
-        <v>598600000</v>
+        <v>540000000</v>
       </c>
       <c r="D24">
-        <v>501599900</v>
+        <v>443000000</v>
       </c>
       <c r="E24">
-        <v>669300000</v>
+        <v>611000000</v>
       </c>
       <c r="F24">
-        <v>546300000</v>
+        <v>489000000</v>
       </c>
       <c r="G24">
         <v>545600000</v>
@@ -3237,8 +3351,8 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>472300000</v>
@@ -3362,8 +3476,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>360300000</v>
@@ -3487,23 +3601,23 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>360300000</v>
+        <v>360000000</v>
       </c>
       <c r="C27">
-        <v>379200000</v>
+        <v>379000000</v>
       </c>
       <c r="D27">
-        <v>296400100</v>
+        <v>296000000</v>
       </c>
       <c r="E27">
-        <v>430700000</v>
+        <v>431000000</v>
       </c>
       <c r="F27">
-        <v>332100000</v>
+        <v>332000000</v>
       </c>
       <c r="G27">
         <v>333600000</v>
@@ -3612,8 +3726,8 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0.9994</v>
@@ -3737,8 +3851,8 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0.9945000000000001</v>
@@ -3862,8 +3976,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0.9994</v>
@@ -3987,8 +4101,8 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0.9945000000000001</v>
@@ -4112,8 +4226,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>362300000</v>
@@ -4237,23 +4351,23 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>0.4842</v>
+        <v>0.4345</v>
       </c>
       <c r="C33">
-        <v>0.4963</v>
+        <v>0.4478</v>
       </c>
       <c r="D33">
-        <v>0.4383</v>
+        <v>0.3872</v>
       </c>
       <c r="E33">
-        <v>0.5245</v>
+        <v>0.4788</v>
       </c>
       <c r="F33">
-        <v>0.4928</v>
+        <v>0.4409</v>
       </c>
       <c r="G33">
         <v>0.5038</v>
@@ -4362,23 +4476,23 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>0.2702</v>
+        <v>0.2703</v>
       </c>
       <c r="C34">
-        <v>0.302</v>
+        <v>0.3021</v>
       </c>
       <c r="D34">
-        <v>0.2947</v>
+        <v>0.2948</v>
       </c>
       <c r="E34">
         <v>0.4803</v>
       </c>
       <c r="F34">
-        <v>0.1532</v>
+        <v>0.1531</v>
       </c>
       <c r="G34">
         <v>0.3561</v>
